--- a/Words.xlsx
+++ b/Words.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="41">
   <si>
     <t>Pronoun</t>
   </si>
@@ -144,6 +144,9 @@
   </si>
   <si>
     <t>grandmother</t>
+  </si>
+  <si>
+    <t>Version</t>
   </si>
 </sst>
 </file>
@@ -458,46 +461,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>22</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
         <v>18</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" t="s">
         <v>19</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D2" t="s">
         <v>20</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E2" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -508,13 +502,13 @@
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -525,13 +519,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -542,13 +536,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -559,13 +553,13 @@
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -576,13 +570,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -593,24 +587,30 @@
         <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>7</v>
+      </c>
+      <c r="D9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -621,7 +621,7 @@
         <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -632,7 +632,7 @@
         <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -643,7 +643,7 @@
         <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -654,7 +654,7 @@
         <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -665,7 +665,7 @@
         <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -676,7 +676,7 @@
         <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -687,7 +687,7 @@
         <v>23</v>
       </c>
       <c r="C16" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -698,7 +698,7 @@
         <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -709,7 +709,7 @@
         <v>23</v>
       </c>
       <c r="C18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -720,7 +720,7 @@
         <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -731,7 +731,7 @@
         <v>23</v>
       </c>
       <c r="C20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -742,7 +742,7 @@
         <v>23</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -753,7 +753,7 @@
         <v>23</v>
       </c>
       <c r="C22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -764,7 +764,7 @@
         <v>23</v>
       </c>
       <c r="C23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -775,6 +775,17 @@
         <v>23</v>
       </c>
       <c r="C24" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>2</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" t="s">
         <v>29</v>
       </c>
     </row>
